--- a/aux data/HZJZ/Umrle osobe u Hrvatskoj/Umrle oboljele osobe ukupno.xlsx
+++ b/aux data/HZJZ/Umrle osobe u Hrvatskoj/Umrle oboljele osobe ukupno.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikap\Documents\Edukacija\Aktuarstvo\Zavrsni rad\HZJZ\Umrle osobe u Hrvatskoj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikap\Documents\Edukacija\Aktuarstvo\Zavrsni rad\Code Repository\Zavrsni-rad\aux data\HZJZ\Umrle osobe u Hrvatskoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All disease" sheetId="1" r:id="rId1"/>
     <sheet name="CI- dead and mortality_sick" sheetId="2" r:id="rId2"/>
     <sheet name="CI- dead and mortality_pop" sheetId="4" r:id="rId3"/>
-    <sheet name="CI - sick" sheetId="3" r:id="rId4"/>
+    <sheet name="Mortality CI by age group" sheetId="5" r:id="rId4"/>
+    <sheet name="CI - sick" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="262">
   <si>
     <t>Godina</t>
   </si>
@@ -2239,12 +2240,86 @@
   <si>
     <t>BROJ ZIVIH PREMA ESTIMACIJI DZS-a</t>
   </si>
+  <si>
+    <t>Excel estimacije DZS a broju zivih: Procjena stanovništva prema dobnim skupinama i spolu, po županijama, 31.12._2012-2020</t>
+  </si>
+  <si>
+    <t>Broj umrlih se uzima iz biltena HZJZ-a, sve u folderu HZJZ</t>
+  </si>
+  <si>
+    <t>Dobna skupina</t>
+  </si>
+  <si>
+    <t>Broj umrlih prema izračunatoj stopi mortaliteta</t>
+  </si>
+  <si>
+    <t>Broj preživjelih (Lx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srčani udar </t>
+  </si>
+  <si>
+    <r>
+      <t>Moždani udar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Rak</t>
+  </si>
+  <si>
+    <t>Stopa mortaliteta oboljele populacije od odgovarajuće kritične bolesti</t>
+  </si>
+  <si>
+    <t>Naziv kritične bolesti</t>
+  </si>
+  <si>
+    <t>Stopa mortaliteta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procijenjeni broj umrlih </t>
+  </si>
+  <si>
+    <t>*From sheet CI- dead and mortality_pop</t>
+  </si>
+  <si>
+    <t>Populacijski postoci</t>
+  </si>
+  <si>
+    <t>Stopa mortaliteta zdrave populacije od ostalih čimbenika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopa mortaliteta općenito za populaciju </t>
+  </si>
+  <si>
+    <t>Broj umrlih(Dx)</t>
+  </si>
+  <si>
+    <t>Stopa mortaliteta (mx)</t>
+  </si>
+  <si>
+    <t>Broj umrlih</t>
+  </si>
+  <si>
+    <t>Stopa mortaliteta kumulativno</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2283,6 +2358,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2351,7 +2432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2408,15 +2489,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -2434,6 +2518,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2639,7 +2726,7 @@
     <tableColumn id="3" name="MBK-10 ŠIFRA"/>
     <tableColumn id="4" name="BROJ UMRLIH"/>
     <tableColumn id="6" name="BROJ ZIVIH PREMA ESTIMACIJI DZS-a"/>
-    <tableColumn id="7" name="VJEROJATNOST SMRTI" dataDxfId="0">
+    <tableColumn id="7" name="VJEROJATNOST SMRTI" dataDxfId="6">
       <calculatedColumnFormula>ROUND(Table25[[#This Row],[BROJ UMRLIH]]/Table25[[#This Row],[BROJ ZIVIH PREMA ESTIMACIJI DZS-a]],6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2648,7 +2735,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E316" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E316" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E316">
     <filterColumn colId="0">
       <filters>
@@ -2670,16 +2757,17 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
+        <filter val="20-64"/>
         <filter val="65+"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="year" dataDxfId="5"/>
-    <tableColumn id="2" name="name_of_disease" dataDxfId="4"/>
-    <tableColumn id="3" name="code_MKB" dataDxfId="3"/>
-    <tableColumn id="4" name="age_group" dataDxfId="2"/>
-    <tableColumn id="5" name="sum" dataDxfId="1"/>
+    <tableColumn id="1" name="year" dataDxfId="4"/>
+    <tableColumn id="2" name="name_of_disease" dataDxfId="3"/>
+    <tableColumn id="3" name="code_MKB" dataDxfId="2"/>
+    <tableColumn id="4" name="age_group" dataDxfId="1"/>
+    <tableColumn id="5" name="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2952,7 +3040,7 @@
   <dimension ref="A1:D784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13950,11 +14038,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14620,8 +14710,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14629,8 +14719,8 @@
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
@@ -14659,8 +14749,8 @@
         <v>239</v>
       </c>
       <c r="J1">
-        <f>D3+D6+D29</f>
-        <v>7633</v>
+        <f>D3+D6+D9</f>
+        <v>11310</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -14895,6 +14985,9 @@
         <f>ROUND(Table25[[#This Row],[BROJ UMRLIH]]/Table25[[#This Row],[BROJ ZIVIH PREMA ESTIMACIJI DZS-a]],6)</f>
         <v>1.7279999999999999E-3</v>
       </c>
+      <c r="I10" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -14915,6 +15008,9 @@
       <c r="F11">
         <f>ROUND(Table25[[#This Row],[BROJ UMRLIH]]/Table25[[#This Row],[BROJ ZIVIH PREMA ESTIMACIJI DZS-a]],6)</f>
         <v>3.3440000000000002E-3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15284,11 +15380,326 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6831947</v>
+      </c>
+      <c r="B3">
+        <v>102917</v>
+      </c>
+      <c r="C3">
+        <f>ROUND(B3/A3,6)</f>
+        <v>1.5063999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6">
+        <v>5263810</v>
+      </c>
+      <c r="C6">
+        <v>19962</v>
+      </c>
+      <c r="D6">
+        <f>ROUND(C6/B6,6)</f>
+        <v>3.7919999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7">
+        <v>1568137</v>
+      </c>
+      <c r="C7">
+        <v>82955</v>
+      </c>
+      <c r="D7">
+        <f>ROUND(C7/B7,6)</f>
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10">
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="C10" s="29">
+        <v>11310</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11">
+        <v>1.557E-3</v>
+      </c>
+      <c r="C11" s="29">
+        <v>21834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12">
+        <v>3.3170000000000001E-3</v>
+      </c>
+      <c r="C12" s="29">
+        <v>41432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="30">
+        <f>80.6038</f>
+        <v>80.603800000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="30">
+        <f>19.3962</f>
+        <v>19.3962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20">
+        <v>5263810</v>
+      </c>
+      <c r="C20">
+        <f>ROUND(C10-C21,0)</f>
+        <v>2194</v>
+      </c>
+      <c r="D20">
+        <f>ROUND(C11-D21,0)</f>
+        <v>4235</v>
+      </c>
+      <c r="E20">
+        <f>ROUND(C12-E21,0)</f>
+        <v>8036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21">
+        <v>1568137</v>
+      </c>
+      <c r="C21">
+        <f>ROUND(C10*B15/100,0)</f>
+        <v>9116</v>
+      </c>
+      <c r="D21">
+        <f>ROUND(C11*B15/100,0)</f>
+        <v>17599</v>
+      </c>
+      <c r="E21">
+        <f>ROUND(C12*B15/100,0)</f>
+        <v>33396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25">
+        <f>ROUND(C20/$B$20,6)</f>
+        <v>4.17E-4</v>
+      </c>
+      <c r="C25">
+        <f>ROUND(D20/$B$20,6)</f>
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="D25">
+        <f>ROUND(E20/$B$20,6)</f>
+        <v>1.5269999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26">
+        <f>ROUND(C21/$B$21,6)</f>
+        <v>5.8129999999999996E-3</v>
+      </c>
+      <c r="C26">
+        <f>ROUND(D21/$B$21,6)</f>
+        <v>1.1223E-2</v>
+      </c>
+      <c r="D26">
+        <f>ROUND(E21/$B$21,6)</f>
+        <v>2.1297E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29">
+        <f>D6-B25-C25-D25</f>
+        <v>1.0429999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30">
+        <f>D7-B26-C26-D26</f>
+        <v>1.4567000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H319" sqref="H319"/>
+      <selection activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17991,7 +18402,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="16" t="s">
         <v>225</v>
       </c>
@@ -18231,7 +18642,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="16" t="s">
         <v>226</v>
       </c>
@@ -18471,7 +18882,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="16" t="s">
         <v>227</v>
       </c>
@@ -18711,7 +19122,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="16" t="s">
         <v>228</v>
       </c>
@@ -18951,7 +19362,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="16" t="s">
         <v>229</v>
       </c>
@@ -19191,7 +19602,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="16" t="s">
         <v>230</v>
       </c>
@@ -19431,7 +19842,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="16" t="s">
         <v>231</v>
       </c>
@@ -19671,7 +20082,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="16" t="s">
         <v>232</v>
       </c>
@@ -19911,7 +20322,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="16" t="s">
         <v>233</v>
       </c>

--- a/aux data/HZJZ/Umrle osobe u Hrvatskoj/Umrle oboljele osobe ukupno.xlsx
+++ b/aux data/HZJZ/Umrle osobe u Hrvatskoj/Umrle oboljele osobe ukupno.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="All disease" sheetId="1" r:id="rId1"/>
@@ -2317,7 +2317,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2489,12 +2489,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3040,15 +3040,15 @@
   <dimension ref="A1:D784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="15"/>
-    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -14044,12 +14044,12 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
@@ -15382,7 +15382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -15489,10 +15489,10 @@
       <c r="B10">
         <v>8.5099999999999998E-4</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>11310</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -15501,7 +15501,7 @@
       <c r="B11">
         <v>1.557E-3</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>21834</v>
       </c>
     </row>
@@ -15512,7 +15512,7 @@
       <c r="B12">
         <v>3.3170000000000001E-3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>41432</v>
       </c>
     </row>
@@ -15526,7 +15526,7 @@
       <c r="A15" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <f>80.6038</f>
         <v>80.603800000000007</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="A16" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <f>19.3962</f>
         <v>19.3962</v>
       </c>
@@ -15547,11 +15547,11 @@
       <c r="B18" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
@@ -15608,11 +15608,11 @@
       <c r="A23" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -15698,8 +15698,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G317" sqref="G317"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/aux data/HZJZ/Umrle osobe u Hrvatskoj/Umrle oboljele osobe ukupno.xlsx
+++ b/aux data/HZJZ/Umrle osobe u Hrvatskoj/Umrle oboljele osobe ukupno.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="All disease" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="263">
   <si>
     <t>Godina</t>
   </si>
@@ -2310,6 +2310,9 @@
   </si>
   <si>
     <t>Stopa mortaliteta kumulativno</t>
+  </si>
+  <si>
+    <t>A00-Y89</t>
   </si>
 </sst>
 </file>
@@ -2747,7 +2750,6 @@
         <filter val="2017"/>
         <filter val="2018"/>
         <filter val="2019"/>
-        <filter val="2020"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -3039,8 +3041,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D784"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,7 +3050,7 @@
     <col min="1" max="1" width="8.88671875" style="15"/>
     <col min="2" max="2" width="49.88671875" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,8 +3074,8 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
+      <c r="C2" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="D2" s="10">
         <v>51710</v>
@@ -3457,7 +3459,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>2012</v>
       </c>
@@ -3471,7 +3473,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>2012</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>2012</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>2012</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>2012</v>
       </c>
@@ -4059,7 +4061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>2012</v>
       </c>
@@ -4073,7 +4075,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>2012</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>2012</v>
       </c>
@@ -15698,8 +15700,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20322,7 +20324,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="16" t="s">
         <v>233</v>
       </c>
@@ -20339,7 +20341,7 @@
         <v>61415</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="16" t="s">
         <v>233</v>
       </c>
